--- a/config_12.08/shoping_config_vivo.xlsx
+++ b/config_12.08/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F2" sqref="F2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,9 +9117,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9199,9 +9197,7 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9281,9 +9277,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9363,9 +9357,7 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9445,9 +9437,7 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9527,9 +9517,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9609,9 +9597,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9690,9 +9676,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9773,9 +9756,7 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10777,9 +10758,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10881,10 +10860,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P434" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14674,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14730,7 +14709,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14786,7 +14765,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14842,7 +14821,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14898,7 +14877,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16231,7 +16210,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18265,7 +18244,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18321,7 +18300,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27606,7 +27585,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>

--- a/config_12.08/shoping_config_vivo.xlsx
+++ b/config_12.08/shoping_config_vivo.xlsx
@@ -7759,14 +7759,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7996,6 +7988,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10860,10 +10860,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31088,7 +31088,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31101,13 +31101,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1031</v>
@@ -31117,7 +31117,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31170,7 +31170,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31183,16 +31183,16 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -31252,7 +31252,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31265,16 +31265,16 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31334,7 +31334,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31353,10 +31353,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31429,16 +31429,16 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31498,7 +31498,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31517,17 +31517,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31580,7 +31580,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31593,23 +31593,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31662,7 +31662,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31675,16 +31675,16 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31744,7 +31744,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31757,23 +31757,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31826,7 +31826,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31839,23 +31839,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39719,7 +39719,7 @@
         <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41025,7 +41025,7 @@
         <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1731</v>
+        <v>1790</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,7 +41046,7 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1732</v>
+        <v>1789</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1720</v>
@@ -41084,13 +41084,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1775</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1776</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1777</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41108,10 +41108,10 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q476" s="68" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="V476" s="67" t="s">
         <v>1246</v>
@@ -41149,13 +41149,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H477" s="67" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41173,10 +41173,10 @@
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="V477" s="67" t="s">
         <v>1246</v>
@@ -41214,13 +41214,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41238,7 +41238,7 @@
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="Q478" s="68" t="s">
         <v>770</v>
@@ -41279,13 +41279,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41303,10 +41303,10 @@
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="V479" s="67" t="s">
         <v>1246</v>
@@ -42095,7 +42095,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -42109,7 +42109,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -42123,7 +42123,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -42137,7 +42137,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -42151,7 +42151,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -42165,7 +42165,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -42179,7 +42179,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -42193,7 +42193,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -42207,7 +42207,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -42221,7 +42221,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -42235,7 +42235,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -42249,7 +42249,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -42263,7 +42263,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -42277,7 +42277,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_12.08/shoping_config_vivo.xlsx
+++ b/config_12.08/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3965" uniqueCount="1809">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,6 +7996,74 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8208,7 +8276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8426,6 +8494,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10857,13 +10928,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AM485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK466" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection pane="bottomRight" activeCell="AK492" sqref="AK492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -41333,6 +41404,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="480" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A480" s="53">
+        <v>479</v>
+      </c>
+      <c r="B480" s="53">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="53">
+        <v>1</v>
+      </c>
+      <c r="G480" s="53" t="s">
+        <v>1791</v>
+      </c>
+      <c r="I480" s="53" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K480" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="53">
+        <v>0</v>
+      </c>
+      <c r="M480" s="53">
+        <v>0</v>
+      </c>
+      <c r="N480" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O480" s="53">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q480" s="54" t="s">
+        <v>1794</v>
+      </c>
+      <c r="V480" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W480" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A481" s="53">
+        <v>480</v>
+      </c>
+      <c r="B481" s="53">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="53">
+        <v>1</v>
+      </c>
+      <c r="G481" s="53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I481" s="53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K481" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="53">
+        <v>0</v>
+      </c>
+      <c r="M481" s="53">
+        <v>0</v>
+      </c>
+      <c r="N481" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O481" s="53">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q481" s="54" t="s">
+        <v>1797</v>
+      </c>
+      <c r="V481" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W481" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A482" s="53">
+        <v>481</v>
+      </c>
+      <c r="B482" s="53">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="53">
+        <v>1</v>
+      </c>
+      <c r="G482" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="I482" s="53" t="s">
+        <v>1798</v>
+      </c>
+      <c r="K482" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="53">
+        <v>0</v>
+      </c>
+      <c r="M482" s="53">
+        <v>0</v>
+      </c>
+      <c r="N482" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O482" s="53">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q482" s="54" t="s">
+        <v>1799</v>
+      </c>
+      <c r="V482" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W482" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A483" s="53">
+        <v>482</v>
+      </c>
+      <c r="B483" s="53">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="53">
+        <v>1</v>
+      </c>
+      <c r="G483" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="I483" s="53" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K483" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="53">
+        <v>0</v>
+      </c>
+      <c r="M483" s="53">
+        <v>0</v>
+      </c>
+      <c r="N483" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O483" s="53">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q483" s="54" t="s">
+        <v>1801</v>
+      </c>
+      <c r="V483" s="53" t="s">
+        <v>1795</v>
+      </c>
+      <c r="W483" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A484" s="53">
+        <v>483</v>
+      </c>
+      <c r="B484" s="53">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="53">
+        <v>1</v>
+      </c>
+      <c r="G484" s="53" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I484" s="53" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K484" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="53">
+        <v>0</v>
+      </c>
+      <c r="M484" s="53">
+        <v>0</v>
+      </c>
+      <c r="N484" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O484" s="53">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q484" s="54" t="s">
+        <v>1804</v>
+      </c>
+      <c r="V484" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W484" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="53" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A485" s="53">
+        <v>484</v>
+      </c>
+      <c r="B485" s="53">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="53">
+        <v>1</v>
+      </c>
+      <c r="G485" s="53" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I485" s="53" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K485" s="53">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="53">
+        <v>0</v>
+      </c>
+      <c r="M485" s="53">
+        <v>0</v>
+      </c>
+      <c r="N485" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="O485" s="53">
+        <v>600</v>
+      </c>
+      <c r="P485" s="53" t="s">
+        <v>1793</v>
+      </c>
+      <c r="Q485" s="54" t="s">
+        <v>1808</v>
+      </c>
+      <c r="V485" s="53" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W485" s="53">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="73">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="73">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="53">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/shoping_config_vivo.xlsx
+++ b/config_12.08/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,18 +7996,6 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8086,7 +8074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8177,12 +8165,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8226,7 +8208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8444,12 +8426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10881,10 +10857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AF458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
@@ -10929,7 +10905,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11047,11 +11023,8 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11109,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11167,7 +11140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11225,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11294,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11348,7 +11321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11406,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11463,7 +11436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11517,7 +11490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11571,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11625,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11679,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11736,7 +11709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11790,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11847,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27601,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27656,9 +27629,8 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-      <c r="AN273" s="73"/>
-    </row>
-    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27734,7 +27706,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27799,7 +27771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27864,7 +27836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27929,7 +27901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27994,7 +27966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28059,7 +28031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28124,7 +28096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28189,7 +28161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28254,7 +28226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28319,7 +28291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28384,7 +28356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28446,7 +28418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28508,7 +28480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28570,7 +28542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35162,7 +35134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35230,7 +35202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35297,9 +35269,8 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-      <c r="AN386" s="49"/>
-    </row>
-    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35366,9 +35337,8 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-      <c r="AN387" s="49"/>
-    </row>
-    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35435,9 +35405,8 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-      <c r="AN388" s="49"/>
-    </row>
-    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35504,9 +35473,8 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-      <c r="AN389" s="63"/>
-    </row>
-    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35573,9 +35541,8 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-      <c r="AN390" s="63"/>
-    </row>
-    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35642,9 +35609,8 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-      <c r="AN391" s="63"/>
-    </row>
-    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35711,9 +35677,8 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-      <c r="AN392" s="49"/>
-    </row>
-    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35780,9 +35745,8 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-      <c r="AN393" s="49"/>
-    </row>
-    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35849,9 +35813,8 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-      <c r="AN394" s="49"/>
-    </row>
-    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35913,7 +35876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -35975,7 +35938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36037,7 +36000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36099,7 +36062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36161,7 +36124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36223,7 +36186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36288,7 +36251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36353,7 +36316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36418,7 +36381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36483,7 +36446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36548,7 +36511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36613,7 +36576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36678,7 +36641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36742,9 +36705,8 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-      <c r="AN408" s="5"/>
-    </row>
-    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36808,9 +36770,8 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-      <c r="AN409" s="5"/>
-    </row>
-    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36874,9 +36835,8 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-      <c r="AN410" s="5"/>
-    </row>
-    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -36940,9 +36900,8 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-      <c r="AN411" s="5"/>
-    </row>
-    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -37006,9 +36965,8 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-      <c r="AN412" s="5"/>
-    </row>
-    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37072,9 +37030,8 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-      <c r="AN413" s="5"/>
-    </row>
-    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37130,7 +37087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37198,7 +37155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37266,7 +37223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37334,7 +37291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37402,7 +37359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37470,7 +37427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37538,7 +37495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37606,7 +37563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37673,9 +37630,8 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-      <c r="AN422" s="6"/>
-    </row>
-    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37742,9 +37698,8 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-      <c r="AN423" s="6"/>
-    </row>
-    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37811,9 +37766,8 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-      <c r="AN424" s="6"/>
-    </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37868,11 +37822,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37928,7 +37879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37983,11 +37934,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -38043,7 +37991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38099,7 +38047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38167,7 +38115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38235,7 +38183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38303,7 +38251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38371,7 +38319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38435,9 +38383,8 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-      <c r="AN434" s="5"/>
-    </row>
-    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38501,9 +38448,8 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-      <c r="AN435" s="5"/>
-    </row>
-    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38567,9 +38513,8 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-      <c r="AN436" s="5"/>
-    </row>
-    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38633,9 +38578,8 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-      <c r="AN437" s="5"/>
-    </row>
-    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38699,9 +38643,8 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-      <c r="AN438" s="5"/>
-    </row>
-    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38765,9 +38708,8 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-      <c r="AN439" s="5"/>
-    </row>
-    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38831,9 +38773,8 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-      <c r="AN440" s="5"/>
-    </row>
-    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38894,9 +38835,8 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-      <c r="AN441" s="5"/>
-    </row>
-    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -38957,9 +38897,8 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-      <c r="AN442" s="5"/>
-    </row>
-    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -39020,9 +38959,8 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-      <c r="AN443" s="5"/>
-    </row>
-    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39083,9 +39021,8 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-      <c r="AN444" s="5"/>
-    </row>
-    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39146,9 +39083,8 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-      <c r="AN445" s="5"/>
-    </row>
-    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39209,9 +39145,8 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-      <c r="AN446" s="5"/>
-    </row>
-    <row r="447" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="57">
         <v>446</v>
       </c>
@@ -39279,7 +39214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="57">
         <v>447</v>
       </c>
@@ -40417,7 +40352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="57">
         <v>464</v>
       </c>
@@ -40485,7 +40420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="57">
         <v>465</v>
       </c>
@@ -40550,7 +40485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="57">
         <v>466</v>
       </c>
@@ -40618,7 +40553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="61">
         <v>467</v>
       </c>
@@ -40683,7 +40618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="61">
         <v>468</v>
       </c>
@@ -40748,7 +40683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="61">
         <v>469</v>
       </c>
@@ -40813,7 +40748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="61">
         <v>470</v>
       </c>
@@ -40878,7 +40813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="61">
         <v>471</v>
       </c>
@@ -40943,7 +40878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="61">
         <v>472</v>
       </c>
@@ -41008,7 +40943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="57">
         <v>473</v>
       </c>
@@ -41072,9 +41007,8 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-      <c r="AN474" s="74"/>
-    </row>
-    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="57">
         <v>474</v>
       </c>
@@ -41138,9 +41072,8 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-      <c r="AN475" s="74"/>
-    </row>
-    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41205,7 +41138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41270,7 +41203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41335,7 +41268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41399,33 +41332,6 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN486" s="5"/>
-    </row>
-    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN487" s="5"/>
-    </row>
-    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
-      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_12.08/shoping_config_vivo.xlsx
+++ b/config_12.08/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3932" uniqueCount="1794">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7996,6 +7996,18 @@
   </si>
   <si>
     <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8074,7 +8086,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8165,6 +8177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -8208,7 +8226,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8426,6 +8444,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10857,13 +10881,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM479"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AF458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -10905,7 +10929,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11023,8 +11047,11 @@
       <c r="AM1" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN1" s="1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -11082,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -11140,7 +11167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -11198,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11267,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11321,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11379,7 +11406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11436,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11490,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11544,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11598,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11652,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11709,7 +11736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11763,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11820,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -27574,7 +27601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:39" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:40" s="69" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="69">
         <v>272</v>
       </c>
@@ -27629,8 +27656,9 @@
       <c r="AH273" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:39" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AN273" s="73"/>
+    </row>
+    <row r="274" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="6">
         <v>273</v>
       </c>
@@ -27706,7 +27734,7 @@
       <c r="AL274" s="5"/>
       <c r="AM274" s="5"/>
     </row>
-    <row r="275" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -27771,7 +27799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -27836,7 +27864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -27901,7 +27929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -27966,7 +27994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -28031,7 +28059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -28096,7 +28124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -28161,7 +28189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -28226,7 +28254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -28291,7 +28319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -28356,7 +28384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -28418,7 +28446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -28480,7 +28508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -28542,7 +28570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -35134,7 +35162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>384</v>
       </c>
@@ -35202,7 +35230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="19">
         <v>385</v>
       </c>
@@ -35269,8 +35297,9 @@
       <c r="AL386" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN386" s="49"/>
+    </row>
+    <row r="387" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="19">
         <v>386</v>
       </c>
@@ -35337,8 +35366,9 @@
       <c r="AL387" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN387" s="49"/>
+    </row>
+    <row r="388" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="19">
         <v>387</v>
       </c>
@@ -35405,8 +35435,9 @@
       <c r="AL388" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN388" s="49"/>
+    </row>
+    <row r="389" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="19">
         <v>388</v>
       </c>
@@ -35473,8 +35504,9 @@
       <c r="AL389" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN389" s="63"/>
+    </row>
+    <row r="390" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="19">
         <v>389</v>
       </c>
@@ -35541,8 +35573,9 @@
       <c r="AL390" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN390" s="63"/>
+    </row>
+    <row r="391" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="19">
         <v>390</v>
       </c>
@@ -35609,8 +35642,9 @@
       <c r="AL391" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN391" s="63"/>
+    </row>
+    <row r="392" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="19">
         <v>391</v>
       </c>
@@ -35677,8 +35711,9 @@
       <c r="AL392" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN392" s="49"/>
+    </row>
+    <row r="393" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="19">
         <v>392</v>
       </c>
@@ -35745,8 +35780,9 @@
       <c r="AL393" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN393" s="49"/>
+    </row>
+    <row r="394" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="19">
         <v>393</v>
       </c>
@@ -35813,8 +35849,9 @@
       <c r="AL394" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN394" s="49"/>
+    </row>
+    <row r="395" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>394</v>
       </c>
@@ -35876,7 +35913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>395</v>
       </c>
@@ -35938,7 +35975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>396</v>
       </c>
@@ -36000,7 +36037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>397</v>
       </c>
@@ -36062,7 +36099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>398</v>
       </c>
@@ -36124,7 +36161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>399</v>
       </c>
@@ -36186,7 +36223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>400</v>
       </c>
@@ -36251,7 +36288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>401</v>
       </c>
@@ -36316,7 +36353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>402</v>
       </c>
@@ -36381,7 +36418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>403</v>
       </c>
@@ -36446,7 +36483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>404</v>
       </c>
@@ -36511,7 +36548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>405</v>
       </c>
@@ -36576,7 +36613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>406</v>
       </c>
@@ -36641,7 +36678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="49">
         <v>407</v>
       </c>
@@ -36705,8 +36742,9 @@
       <c r="AL408" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN408" s="5"/>
+    </row>
+    <row r="409" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="49">
         <v>408</v>
       </c>
@@ -36770,8 +36808,9 @@
       <c r="AL409" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN409" s="5"/>
+    </row>
+    <row r="410" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="49">
         <v>409</v>
       </c>
@@ -36835,8 +36874,9 @@
       <c r="AL410" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN410" s="5"/>
+    </row>
+    <row r="411" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="49">
         <v>410</v>
       </c>
@@ -36900,8 +36940,9 @@
       <c r="AL411" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN411" s="5"/>
+    </row>
+    <row r="412" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="49">
         <v>411</v>
       </c>
@@ -36965,8 +37006,9 @@
       <c r="AL412" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:38" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN412" s="5"/>
+    </row>
+    <row r="413" spans="1:40" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="49">
         <v>412</v>
       </c>
@@ -37030,8 +37072,9 @@
       <c r="AL413" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN413" s="5"/>
+    </row>
+    <row r="414" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>413</v>
       </c>
@@ -37087,7 +37130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A415" s="6">
         <v>414</v>
       </c>
@@ -37155,7 +37198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A416" s="6">
         <v>415</v>
       </c>
@@ -37223,7 +37266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37291,7 +37334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37359,7 +37402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37427,7 +37470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37495,7 +37538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37563,7 +37606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="53">
         <v>421</v>
       </c>
@@ -37630,8 +37673,9 @@
       <c r="AL422" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN422" s="6"/>
+    </row>
+    <row r="423" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="53">
         <v>422</v>
       </c>
@@ -37698,8 +37742,9 @@
       <c r="AL423" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN423" s="6"/>
+    </row>
+    <row r="424" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="53">
         <v>423</v>
       </c>
@@ -37766,8 +37811,9 @@
       <c r="AL424" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN424" s="6"/>
+    </row>
+    <row r="425" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37822,8 +37868,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN425" s="6" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37879,7 +37928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37934,8 +37983,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AN427" s="6" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37991,7 +38043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -38047,7 +38099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -38115,7 +38167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -38183,7 +38235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -38251,7 +38303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:40" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="6">
         <v>432</v>
       </c>
@@ -38319,7 +38371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="55">
         <v>433</v>
       </c>
@@ -38383,8 +38435,9 @@
       <c r="AL434" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN434" s="5"/>
+    </row>
+    <row r="435" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="55">
         <v>434</v>
       </c>
@@ -38448,8 +38501,9 @@
       <c r="AL435" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN435" s="5"/>
+    </row>
+    <row r="436" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="55">
         <v>435</v>
       </c>
@@ -38513,8 +38567,9 @@
       <c r="AL436" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN436" s="5"/>
+    </row>
+    <row r="437" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="55">
         <v>436</v>
       </c>
@@ -38578,8 +38633,9 @@
       <c r="AL437" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN437" s="5"/>
+    </row>
+    <row r="438" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="55">
         <v>437</v>
       </c>
@@ -38643,8 +38699,9 @@
       <c r="AL438" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN438" s="5"/>
+    </row>
+    <row r="439" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="55">
         <v>438</v>
       </c>
@@ -38708,8 +38765,9 @@
       <c r="AL439" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN439" s="5"/>
+    </row>
+    <row r="440" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="55">
         <v>439</v>
       </c>
@@ -38773,8 +38831,9 @@
       <c r="AL440" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN440" s="5"/>
+    </row>
+    <row r="441" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A441" s="53">
         <v>440</v>
       </c>
@@ -38835,8 +38894,9 @@
       <c r="AL441" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN441" s="5"/>
+    </row>
+    <row r="442" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="53">
         <v>441</v>
       </c>
@@ -38897,8 +38957,9 @@
       <c r="AL442" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN442" s="5"/>
+    </row>
+    <row r="443" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A443" s="53">
         <v>442</v>
       </c>
@@ -38959,8 +39020,9 @@
       <c r="AL443" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN443" s="5"/>
+    </row>
+    <row r="444" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A444" s="53">
         <v>443</v>
       </c>
@@ -39021,8 +39083,9 @@
       <c r="AL444" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN444" s="5"/>
+    </row>
+    <row r="445" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A445" s="53">
         <v>444</v>
       </c>
@@ -39083,8 +39146,9 @@
       <c r="AL445" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:38" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN445" s="5"/>
+    </row>
+    <row r="446" spans="1:40" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A446" s="53">
         <v>445</v>
       </c>
@@ -39145,8 +39209,9 @@
       <c r="AL446" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN446" s="5"/>
+    </row>
+    <row r="447" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="57">
         <v>446</v>
       </c>
@@ -39214,7 +39279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="57">
         <v>447</v>
       </c>
@@ -40352,7 +40417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A465" s="57">
         <v>464</v>
       </c>
@@ -40420,7 +40485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A466" s="57">
         <v>465</v>
       </c>
@@ -40485,7 +40550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:40" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="57">
         <v>466</v>
       </c>
@@ -40553,7 +40618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="61">
         <v>467</v>
       </c>
@@ -40618,7 +40683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="61">
         <v>468</v>
       </c>
@@ -40683,7 +40748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="61">
         <v>469</v>
       </c>
@@ -40748,7 +40813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="61">
         <v>470</v>
       </c>
@@ -40813,7 +40878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="61">
         <v>471</v>
       </c>
@@ -40878,7 +40943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:40" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A473" s="61">
         <v>472</v>
       </c>
@@ -40943,7 +41008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A474" s="57">
         <v>473</v>
       </c>
@@ -41007,8 +41072,9 @@
       <c r="AL474" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:38" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN474" s="74"/>
+    </row>
+    <row r="475" spans="1:40" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A475" s="57">
         <v>474</v>
       </c>
@@ -41072,8 +41138,9 @@
       <c r="AL475" s="55">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AN475" s="74"/>
+    </row>
+    <row r="476" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A476" s="67">
         <v>475</v>
       </c>
@@ -41138,7 +41205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A477" s="67">
         <v>476</v>
       </c>
@@ -41203,7 +41270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A478" s="67">
         <v>477</v>
       </c>
@@ -41268,7 +41335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:40" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A479" s="67">
         <v>478</v>
       </c>
@@ -41332,6 +41399,33 @@
       <c r="AL479" s="67">
         <v>1</v>
       </c>
+    </row>
+    <row r="480" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN486" s="5"/>
+    </row>
+    <row r="487" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN487" s="5"/>
+    </row>
+    <row r="488" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN488" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
